--- a/Sosyal_Beceri/Kitap_Okuma_Önerileri/Kitap_Okuma_Öneri_Listesi.xlsx
+++ b/Sosyal_Beceri/Kitap_Okuma_Önerileri/Kitap_Okuma_Öneri_Listesi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Kitap İsmi</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Siyasi ve toplumsal düzenin temellerini inceleyen bir felsefi eserdir.</t>
+  </si>
+  <si>
+    <t>Hayvanlardan Tanrılara Sapiens</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari</t>
+  </si>
+  <si>
+    <t>Kolektif Kitap</t>
+  </si>
+  <si>
+    <t>İnsan türünün kısa tarihini anlatan birbirinden değerli bilgiler içeren kitaptır.</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +730,26 @@
         <v>45081</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
